--- a/resources/projects/recommender2_paper/evaluation_data/experiment_3.xlsx
+++ b/resources/projects/recommender2_paper/evaluation_data/experiment_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="400" yWindow="0" windowWidth="15880" windowHeight="19980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="specialization_keywords" localSheetId="0">Sheet1!$A$1:$A$15</definedName>
+    <definedName name="specialization_keywords" localSheetId="0">Sheet1!$B$1:$B$15</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -95,10 +95,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,13 +137,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,92 +517,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A1:B15">
+    <sortCondition ref="A1:A15"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
